--- a/DATN/DS DATN.xlsx
+++ b/DATN/DS DATN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GDrive\GiangDay\2023-2024\HK1\DATN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GDrive\GiangDay\2023-2024\HD-DoAn\DATN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="92">
   <si>
     <t>PHÂN CÔNG GVHD</t>
   </si>
@@ -292,13 +292,22 @@
   </si>
   <si>
     <t>Số ĐT</t>
+  </si>
+  <si>
+    <t>hvphi@vku.udn.vn</t>
+  </si>
+  <si>
+    <t>28/9</t>
+  </si>
+  <si>
+    <t>v</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,6 +341,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -347,7 +364,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -370,11 +387,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -391,6 +420,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -398,7 +430,8 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -677,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,10 +742,10 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="8"/>
+      <c r="H1" s="9"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -720,8 +753,8 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
     </row>
     <row r="2" spans="1:19" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1176,11 +1209,140 @@
         <v>42</v>
       </c>
     </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C13" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>8</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>9</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>10</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="R1:S1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C13" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1218,14 +1380,14 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="R1" s="8"/>
-      <c r="S1" s="9" t="s">
+      <c r="R1" s="9"/>
+      <c r="S1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="T1" s="9"/>
+      <c r="T1" s="10"/>
     </row>
     <row r="2" spans="1:20" ht="171" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
